--- a/Money/Executive_English_Now/class-attendance-monthly_9.xlsx
+++ b/Money/Executive_English_Now/class-attendance-monthly_9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Teacher</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>September</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan </t>
   </si>
 </sst>
 </file>
@@ -829,47 +835,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -888,13 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1564,8 +1570,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1585,28 +1591,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -1620,48 +1626,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="59" t="s">
+      <c r="Z2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -1675,87 +1681,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="63">
         <v>2017</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="48" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>F</v>
@@ -1880,7 +1886,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v/>
       </c>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="55"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -2015,7 +2021,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v/>
       </c>
-      <c r="AI7" s="50"/>
+      <c r="AI7" s="56"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2028,7 +2034,9 @@
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -2039,26 +2047,36 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
+      <c r="W8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
+      <c r="AB8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
+      <c r="AD8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ8" s="5"/>
     </row>
@@ -2076,10 +2094,14 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -2102,7 +2124,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="42">
         <f t="shared" ref="AI9:AI27" si="1">IF(C9="","", COUNTA(D9:AH9))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="5"/>
     </row>
@@ -2122,24 +2144,34 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+      <c r="P10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
+      <c r="W10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
+      <c r="AB10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AC10" s="22"/>
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
@@ -2148,7 +2180,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ10" s="5"/>
     </row>
@@ -2156,7 +2188,9 @@
       <c r="B11" s="35">
         <v>4</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -2176,21 +2210,27 @@
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
+      <c r="W11" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
+      <c r="Y11" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
+      <c r="AD11" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AE11" s="22"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="23"/>
-      <c r="AI11" s="42" t="str">
+      <c r="AI11" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AJ11" s="5"/>
     </row>
@@ -2867,10 +2907,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="40">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v>1</v>
@@ -2883,9 +2923,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="G28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2899,9 +2939,9 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="K28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="L28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2911,25 +2951,25 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="N28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="O28" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Q28" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="R28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="S28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2947,17 +2987,17 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="W28" s="41">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="X28" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Y28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="Y28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Z28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2967,17 +3007,17 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AB28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AC28" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AD28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AD28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AE28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -2997,45 +3037,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="55"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -3114,12 +3154,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D29:AH29"/>
@@ -3130,6 +3164,12 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:AH7">
     <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
@@ -3167,8 +3207,8 @@
   </sheetPr>
   <dimension ref="B1:AM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AH2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3188,28 +3228,28 @@
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
       <c r="AD1" s="46"/>
@@ -3223,48 +3263,48 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="47"/>
       <c r="Y2" s="47"/>
-      <c r="Z2" s="59" t="s">
+      <c r="Z2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="56" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
       <c r="AI2" s="7"/>
     </row>
     <row r="3" spans="2:39" ht="16.2" x14ac:dyDescent="0.35">
@@ -3278,87 +3318,87 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Z3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="61">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="63">
         <v>2017</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
       <c r="AI3" s="7"/>
     </row>
     <row r="5" spans="2:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="48" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="5"/>
     </row>
     <row r="6" spans="2:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="str">
         <f>IF(D7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(D7,1)))</f>
         <v>F</v>
@@ -3483,7 +3523,7 @@
         <f>IF(AH7="","",INDEX({"Su";"M";"Tu";"W";"Th";"F";"Sa"},WEEKDAY(AH7,1)))</f>
         <v/>
       </c>
-      <c r="AI6" s="49"/>
+      <c r="AI6" s="55"/>
       <c r="AJ6" s="5"/>
       <c r="AM6"/>
     </row>
@@ -3618,7 +3658,7 @@
         <f>IF(MONTH($AE7+3)&gt;MONTH($D$7),"",$AE7+3)</f>
         <v/>
       </c>
-      <c r="AI7" s="50"/>
+      <c r="AI7" s="56"/>
       <c r="AJ7" s="5"/>
     </row>
     <row r="8" spans="2:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3633,35 +3673,47 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="P8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
+      <c r="W8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
       <c r="AB8" s="22"/>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
+      <c r="AD8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="23"/>
       <c r="AI8" s="42">
         <f>IF(C8="","", COUNTA(D8:AH8))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ8" s="5"/>
     </row>
@@ -3852,36 +3904,50 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
+      <c r="P13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
+      <c r="X13" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="22"/>
       <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
+      <c r="AC13" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
+      <c r="AE13" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
       <c r="AH13" s="23"/>
       <c r="AI13" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ13" s="5"/>
     </row>
@@ -3912,20 +3978,24 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
+      <c r="X14" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
+      <c r="AE14" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="AF14" s="22"/>
       <c r="AG14" s="22"/>
       <c r="AH14" s="23"/>
       <c r="AI14" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="5"/>
     </row>
@@ -3933,7 +4003,9 @@
       <c r="B15" s="35">
         <v>8</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -3965,9 +4037,9 @@
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
       <c r="AH15" s="23"/>
-      <c r="AI15" s="42" t="str">
+      <c r="AI15" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AJ15" s="5"/>
     </row>
@@ -4476,10 +4548,10 @@
       <c r="AJ27" s="5"/>
     </row>
     <row r="28" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="40" t="str">
         <f t="shared" ref="D28:AH28" si="2">IF(COUNTA(D8:D27) = 0, "", COUNTA(D8:D27))</f>
         <v/>
@@ -4496,17 +4568,17 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="H28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4528,13 +4600,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="R28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4556,13 +4628,13 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="X28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="W28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X28" s="41">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="Y28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4580,17 +4652,17 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AC28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE28" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="AC28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD28" s="41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="41">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="AF28" s="41" t="str">
         <f t="shared" si="2"/>
@@ -4606,45 +4678,45 @@
       </c>
       <c r="AI28" s="43">
         <f>SUM(AI8:AI27)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:36" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="55"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="61"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="24"/>
     </row>
@@ -4723,13 +4795,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N3:W3"/>
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="D29:AH29"/>
     <mergeCell ref="B28:C28"/>
@@ -4739,6 +4804,13 @@
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:AH5"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="N3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D7:AH7">
